--- a/biology/Médecine/Ferroportine/Ferroportine.xlsx
+++ b/biology/Médecine/Ferroportine/Ferroportine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La ferroportine ou ferroportine-1 appelée aussi en anglais : solute carrier family 40 member 1 (SLC40A1) ou iron-regulated transporter 1 est une protéine qui, dans l'espèce humaine, est codée par le gène SLC40A1[1].
+La ferroportine ou ferroportine-1 appelée aussi en anglais : solute carrier family 40 member 1 (SLC40A1) ou iron-regulated transporter 1 est une protéine qui, dans l'espèce humaine, est codée par le gène SLC40A1.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'oligomérie de la ferroportine-1 ne fait pas consensus : il n'est pas encore déterminé si c'est un monomère[2], un dimère[3] ou un multimère. Chaque protomère est formé de 571 acides aminés[4], avec une histidine conservée à la position 32.
-Après mutation, la protéine présente une baisse de sa capacité à transporter le fer[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oligomérie de la ferroportine-1 ne fait pas consensus : il n'est pas encore déterminé si c'est un monomère, un dimère ou un multimère. Chaque protomère est formé de 571 acides aminés, avec une histidine conservée à la position 32.
+Après mutation, la protéine présente une baisse de sa capacité à transporter le fer.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Distribution tissulaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La ferroportine est retrouvée à la surface de cellules qui stockent ou transportent le fer[6] :
-Les entérocytes au niveau du duodénum au niveau du pôle basolatéral[7], c'est-à-dire au contact du sang circulant ;
-Les cellules de Kupffer au niveau du foie[7] ;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La ferroportine est retrouvée à la surface de cellules qui stockent ou transportent le fer :
+Les entérocytes au niveau du duodénum au niveau du pôle basolatéral, c'est-à-dire au contact du sang circulant ;
+Les cellules de Kupffer au niveau du foie ;
 Les macrophages du système phagocytaire mononucléé.</t>
         </is>
       </c>
@@ -577,13 +593,15 @@
           <t>Rôle dans la régulation du fer</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le niveau de fer est constamment régulé suivant des mécanismes complexes, dont le centre de contrôle est l’hépatocyte, qui dispose de capteurs sensibles au niveau
-de fer : protéine de l'hémochromatose humaine (HFE), récepteur de la transferrine 2 (en), hémojuvéline 2 (en) (HJV). En réponse à un excès de fer circulant, l’hépatocyte produit une hormone effectrice, l’hepcidine, régulant négativement le fer[8].
-L’hepcidine induite par l’excès de fer bloque celui-ci dans les macrophages et les cellules intestinales, en se liant à la ferroportine et en l'internalisant à l'intérieur des cellules[9]. Il en résulte une rétention de fer à l'intérieur des cellules et une diminution du fer circulant au niveau du plasma. Au niveau des entérocytes, le fer ainsi fixé reste lié à la ferroportine et se retrouve excrété dans les fèces évitant ainsi une élévation de la sidérémie. À l’inverse, la diminution de fer circulant entraîne une diminution de l’hepcidine et la sortie du fer cellulaire. L'hepcidine et la ferroportine jouent donc un rôle important dans le métabolisme du fer.
+de fer : protéine de l'hémochromatose humaine (HFE), récepteur de la transferrine 2 (en), hémojuvéline 2 (en) (HJV). En réponse à un excès de fer circulant, l’hépatocyte produit une hormone effectrice, l’hepcidine, régulant négativement le fer.
+L’hepcidine induite par l’excès de fer bloque celui-ci dans les macrophages et les cellules intestinales, en se liant à la ferroportine et en l'internalisant à l'intérieur des cellules. Il en résulte une rétention de fer à l'intérieur des cellules et une diminution du fer circulant au niveau du plasma. Au niveau des entérocytes, le fer ainsi fixé reste lié à la ferroportine et se retrouve excrété dans les fèces évitant ainsi une élévation de la sidérémie. À l’inverse, la diminution de fer circulant entraîne une diminution de l’hepcidine et la sortie du fer cellulaire. L'hepcidine et la ferroportine jouent donc un rôle important dans le métabolisme du fer.
 Ce mécanisme régule la sidérémie pour répondre aux besoins de l’hématopoïèse.
-De plus, la ferroportine est régulée par le mécanisme de rétrocontrôle entre la protéine régulatrice du fer (IRP) et l'élément de réponse au fer (IRE). En situation de carence en fer, la concentration d'IRP augmente, inhibant ainsi la traduction de l'ARNm de la ferroportine. La traduction de l'ARNm est également régulée par le micro-ARN miR-485-3p[10]. Par ailleurs, l'expression de la ferroportine est régulée par le facteur de transcription HIF2α[3].
+De plus, la ferroportine est régulée par le mécanisme de rétrocontrôle entre la protéine régulatrice du fer (IRP) et l'élément de réponse au fer (IRE). En situation de carence en fer, la concentration d'IRP augmente, inhibant ainsi la traduction de l'ARNm de la ferroportine. La traduction de l'ARNm est également régulée par le micro-ARN miR-485-3p. Par ailleurs, l'expression de la ferroportine est régulée par le facteur de transcription HIF2α.
 </t>
         </is>
       </c>
@@ -612,11 +630,13 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Des mutations au niveau du gène SLC40A1 (chromosome 2q32) de la ferroportine provoquent des formes autosomiques dominantes très rares d'hémochromatose ou hémochromatose de type 4. Les effets de cette mutation ne sont pas graves en général mais toute une série de manifestations cliniques sont possibles en fonction du type de mutation.
-La ferroportine est aussi impliquée dans l'hémochromatose africaine (en) aussi appelée sidérose des Bantous ou sidérose bantoue[11].
-Par ailleurs, la ferroportine est une protéine importante dans la biologie du cancer du sein et un indicateur fondamental dans le pronostic de ce cancer[12],[13].</t>
+La ferroportine est aussi impliquée dans l'hémochromatose africaine (en) aussi appelée sidérose des Bantous ou sidérose bantoue.
+Par ailleurs, la ferroportine est une protéine importante dans la biologie du cancer du sein et un indicateur fondamental dans le pronostic de ce cancer,.</t>
         </is>
       </c>
     </row>
